--- a/public/data/profit/profit_table_gambia.xlsx
+++ b/public/data/profit/profit_table_gambia.xlsx
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-269.64</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-48.05</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-99.24</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-143.59</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-8.12</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-363.89</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-363.89</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-122.35</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-142.48</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-150.32</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-209.51</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-27.71</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-27.71</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-110.67</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-76.58</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-74.44</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-114.12</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-174.74</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
